--- a/Boom/Excel/StorylineDia.xlsx
+++ b/Boom/Excel/StorylineDia.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2973773-CD14-45F0-874B-AE3E801F7838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC51CC0-3708-45E8-A474-550E54681AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="开局对话邓肯" sheetId="1" r:id="rId1"/>
+    <sheet name="穿透对话邓肯" sheetId="2" r:id="rId2"/>
+    <sheet name="共振对话邓肯" sheetId="3" r:id="rId3"/>
+    <sheet name="教学全部完成邓肯" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>标志</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,6 +79,38 @@
   </si>
   <si>
     <t>可能就只能是你自己了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透咒和穿孔咒都分不清？我真是拿你没办法……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去那边的传送门，自己领个实践任务去。别又炸了哪面墙。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动手前记得看看说明书，这次没人替你擦屁股了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振？哼，你那脑子最好先加点料再碰它。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆开放了，先去那儿学点东西再说吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上回的学生现在还在轨道上绕着塔转呢……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我只制作了这么多内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你全部玩完了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -589,4 +624,284 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BE4D40-FF51-426A-9EE8-BF318797D832}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="65.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C85B926-5FD6-4699-A94A-3079197D553A}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AA8A2C-2F7F-4C60-A0C1-D2A74658DB92}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="18.08203125" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Boom/Excel/StorylineDia.xlsx
+++ b/Boom/Excel/StorylineDia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC51CC0-3708-45E8-A474-550E54681AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAADC8-930F-42AB-BA92-4E99F2BFCDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="开局对话邓肯" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>记住了，基础魔法，可别再搞错了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>又是你！我教学生涯的污点！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>去那边的传送门，自己领个实践任务去。别又炸了哪面墙。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>动手前记得看看说明书，这次没人替你擦屁股了。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>图书馆开放了，先去那儿学点东西再说吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>上回的学生现在还在轨道上绕着塔转呢……</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -111,6 +99,18 @@
   </si>
   <si>
     <t>恭喜你全部玩完了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#图书馆#开放了，先去那儿学点东西再说吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去那边的#传送门#，#自己领个实践任务#去。别又炸了哪面墙。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住了，#基础魔法#，可别再搞错了！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -631,13 +631,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="65.33203125" customWidth="1"/>
+    <col min="6" max="6" width="87.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
         <v>-1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +731,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>-1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AA8A2C-2F7F-4C60-A0C1-D2A74658DB92}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.3">
@@ -897,7 +897,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
